--- a/pred_ohlcv/54_21/2020-01-13 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>590.4640912770857</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>585.2581912770856</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>582.4391912770857</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>579.5832912770857</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>574.8382912770857</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>593.9654912770857</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>548.9654912770857</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>479.2763912770857</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>479.2763912770857</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>492.8755912770857</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>492.8755912770857</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>472.4051912770857</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-183.6090087229144</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-187.8893087229144</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-187.8393087229144</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-187.8393087229144</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-227.7888087229144</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-366.3120087229144</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-366.3120087229144</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-701.3181087229144</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1301.483108722914</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1295.313708722914</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2974.402408722914</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2973.554108722914</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2973.254108722914</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2787.278808722914</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2788.001808722914</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>590.4640912770857</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>585.2581912770856</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>582.4391912770857</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>579.5832912770857</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>593.9654912770857</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>548.9654912770857</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>479.2763912770857</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>479.2763912770857</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>492.8755912770857</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-183.6090087229144</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-187.8893087229144</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-187.8393087229144</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-187.8393087229144</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-227.7888087229144</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-366.3120087229144</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-366.3120087229144</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-701.3181087229144</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1158.672908722914</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1301.483108722914</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1295.313708722914</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1295.313708722914</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2974.402408722914</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2973.554108722914</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2973.254108722914</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2788.278808722914</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2788.001808722914</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
